--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Servicios.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Servicios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36183D72-8F5A-4DA9-935A-C096D9425904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE2F4EC-FE5E-4F0E-B9D3-0057D5D7A182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="179">
   <si>
     <t>Nombre</t>
   </si>
@@ -164,18 +164,6 @@
     <t>¿Qué hago?</t>
   </si>
   <si>
-    <t>Reponsabilidad 1</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 2</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 3</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nombre </t>
   </si>
   <si>
@@ -297,13 +285,328 @@
   </si>
   <si>
     <t>cada servicio tiene un descuento asociado unico</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que violaciones respecto a tipo de dato, longitud, obligatoriedad, formato o rango no se cumplieron</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Si se envía parametros de consulta, deben ser validos a nivel de tipo de datos, longitud, obligatoriedad, formato, rango</t>
+  </si>
+  <si>
+    <t>crear TipoServicio</t>
+  </si>
+  <si>
+    <t>modificar TipoServicio</t>
+  </si>
+  <si>
+    <t>Consultar TipoServicio</t>
+  </si>
+  <si>
+    <t>Eliminar TipoServicio</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de agregar nuevos TipoServicios al sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de actualizar y modificar la información existente de un TipoServicio en el sistema, garantizando que los datos sean precisos y estén actualizados.</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre un TipoServicio registrado en el sistema.</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de eliminar un TipoServicio del sistema cuando sea necesario, asegurando que se sigan los procedimientos adecuados y se cumplan las politicas</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de un nuevo TipoServicio en el sistema.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de un TipoServicio.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de un TipoServicio.</t>
+  </si>
+  <si>
+    <t>Parametro que hace unico a cada TipoServicio.</t>
+  </si>
+  <si>
+    <t>Pol-TipoServicio-001</t>
+  </si>
+  <si>
+    <t>Pol-TipoServicio-002</t>
+  </si>
+  <si>
+    <t>Pol-TipoServicio-004</t>
+  </si>
+  <si>
+    <t>Pol-TipoServicio-005</t>
+  </si>
+  <si>
+    <t>Pol-TipoServicio-003</t>
+  </si>
+  <si>
+    <t>Pol-TipoServicio-006</t>
+  </si>
+  <si>
+    <t>No debe existir otro TipoServicio con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Los datos del nuevo TipoServicio deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango</t>
+  </si>
+  <si>
+    <t>No debe existir otro TipoServicio con el mismo nombre, a exepcion de que sea el mismo que se esta modificando.</t>
+  </si>
+  <si>
+    <t>Debe existir el TipoServicio que se esta modificando</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un TipoServicio creado con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un TipoServicio con el mismo nombre</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que el TipoServicio no existe.</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que no cumple la politica para eliminar el TipoServicio</t>
+  </si>
+  <si>
+    <t>Que el TipoServicio exista y que no tenga servicios asociados</t>
+  </si>
+  <si>
+    <t>Cancelar la creacion del TipoServicio</t>
+  </si>
+  <si>
+    <t>cancelar la modificacion del TipoServicio</t>
+  </si>
+  <si>
+    <t>Cancelar Consulta del TipoServicio</t>
+  </si>
+  <si>
+    <t>cancelar la Eliminacion del TipoServicio</t>
+  </si>
+  <si>
+    <t>Alfanumerico</t>
+  </si>
+  <si>
+    <t>crear Servicio</t>
+  </si>
+  <si>
+    <t>modificar Servicio</t>
+  </si>
+  <si>
+    <t>Consultar Servicio</t>
+  </si>
+  <si>
+    <t>Eliminar Servicio</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de agregar nuevos Servicios al sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de actualizar y modificar la información existente de un Servicio en el sistema, garantizando que los datos sean precisos y estén actualizados.</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre un Servicio registrado en el sistema.</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de eliminar un Servicio del sistema cuando sea necesario, asegurando que se sigan los procedimientos adecuados y se cumplan las politicas</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de un nuevo Servicio en el sistema.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de un Servicio.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de un Servicio.</t>
+  </si>
+  <si>
+    <t>Parametro que hace unico a cada Servicio.</t>
+  </si>
+  <si>
+    <t>Pol-Servicio-001</t>
+  </si>
+  <si>
+    <t>Pol-Servicio-002</t>
+  </si>
+  <si>
+    <t>Pol-Servicio-003</t>
+  </si>
+  <si>
+    <t>Pol-Servicio-005</t>
+  </si>
+  <si>
+    <t>Pol-Servicio-006</t>
+  </si>
+  <si>
+    <t>Pol-Servicio-004</t>
+  </si>
+  <si>
+    <t>Pol-Servicio-007</t>
+  </si>
+  <si>
+    <t>No debe existir otro Servicio con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Los datos del nuevo Servicio deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango</t>
+  </si>
+  <si>
+    <t>Debe existir un Tipo Servicio al cual debe estar asociado el Servicio</t>
+  </si>
+  <si>
+    <t>No debe existir otro Servicio con el mismo nombre, a exepcion de que sea el mismo que se esta modificando.</t>
+  </si>
+  <si>
+    <t>Debe existir el Servicio que se esta modificando</t>
+  </si>
+  <si>
+    <t>Que el Servicio exista y que no tenga ninguna oferta asociada</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un Servicio creado con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que no se puede crear el Servicio porque no cumple con la politica.</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un Servicio con el mismo nombre</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que el Servicio no existe.</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que no cumple la politica para eliminar el Servicio</t>
+  </si>
+  <si>
+    <t>Cancelar la creacion del Servicio</t>
+  </si>
+  <si>
+    <t>cancelar la modificacion del Servicio</t>
+  </si>
+  <si>
+    <t>Cancelar Consulta del Servicio</t>
+  </si>
+  <si>
+    <t>cancelar la Eliminacion del Servicio</t>
+  </si>
+  <si>
+    <t>crear Oferta</t>
+  </si>
+  <si>
+    <t>modificar Oferta</t>
+  </si>
+  <si>
+    <t>Consultar Oferta</t>
+  </si>
+  <si>
+    <t>Eliminar Oferta</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de agregar nuevas Ofertas al sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de actualizar y modificar la información existente de una Oferta en el sistema, garantizando que los datos sean precisos y estén actualizados.</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre una Oferta registrado en el sistema.</t>
+  </si>
+  <si>
+    <t>Esta responsabilidad implica el proceso de eliminar una Oferta del sistema cuando sea necesario, asegurando que se sigan los procedimientos adecuados y se cumplan las politicas</t>
+  </si>
+  <si>
+    <t>identificador</t>
+  </si>
+  <si>
+    <t>Numerico Entero</t>
+  </si>
+  <si>
+    <t>Parametro que hace unico a cada Oferta.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de una Oferta.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de una Oferta.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de una nueva Oferta en el sistema.</t>
+  </si>
+  <si>
+    <t>Pol-Oferta-001</t>
+  </si>
+  <si>
+    <t>Pol-Oferta-002</t>
+  </si>
+  <si>
+    <t>Pol-Oferta-003</t>
+  </si>
+  <si>
+    <t>Pol-Oferta-005</t>
+  </si>
+  <si>
+    <t>Pol-Oferta-006</t>
+  </si>
+  <si>
+    <t>Pol-Oferta-004</t>
+  </si>
+  <si>
+    <t>Pol-Oferta-007</t>
+  </si>
+  <si>
+    <t>No debe existir otra Oferta con el mismo servicio y descuento</t>
+  </si>
+  <si>
+    <t>Los datos de la nueva Oferta deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango</t>
+  </si>
+  <si>
+    <t>Debe existir un Servicio al cual debe estar asociado la Oferta</t>
+  </si>
+  <si>
+    <t>No debe existir otra Oferta con el mismo servicio y descuento, a exepcion de que sea el mismo que se esta modificando.</t>
+  </si>
+  <si>
+    <t>Debe existir la Oferta que se esta modificando</t>
+  </si>
+  <si>
+    <t>Que la Oferta exista y que no tenga ninguna servicio asociado</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que no cumple la politica para eliminar la Oferta</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que la Oferta no existe.</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe una  Oferta con el mismo servicio y descuento</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que no se puede crear la Oferta porque no cumple con la politica.</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe una Oferta creado con el mismo servicio y descuento</t>
+  </si>
+  <si>
+    <t>cancelar la Eliminacion de la Oferta</t>
+  </si>
+  <si>
+    <t>Cancelar la creacion de la Oferta</t>
+  </si>
+  <si>
+    <t>cancelar la modificacion de la Oferta</t>
+  </si>
+  <si>
+    <t>Cancelar Consulta de la Oferta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,12 +653,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -420,7 +717,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -648,13 +945,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -711,9 +1097,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -762,29 +1145,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -792,8 +1157,83 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -816,83 +1256,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -906,47 +1271,245 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1373,59 +1936,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C2" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D2" s="40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="B3" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="C3" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="B4" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="74" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="C4" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>44</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +2005,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,70 +2038,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="67" t="str">
         <f>'Listado Objetos de Dominio'!A3</f>
         <v>TipoServicio</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="50" t="str">
+      <c r="B3" s="68" t="str">
         <f>'Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que contiene información sobre los tipos de servicios ofrecidos por el spa, como masajes, tratamientos faciales, pedicura, etc.</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1589,29 +2152,29 @@
       <c r="P4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="36" t="str">
+      <c r="Q4" s="35" t="str">
         <f>A15</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="34" t="str">
-        <f>A16</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="35" t="str">
+        <v>crear TipoServicio</v>
+      </c>
+      <c r="R4" s="33" t="str">
         <f>A17</f>
-        <v>Reponsabilidad 3</v>
+        <v>modificar TipoServicio</v>
+      </c>
+      <c r="S4" s="34" t="str">
+        <f>A20</f>
+        <v>Consultar TipoServicio</v>
       </c>
       <c r="T4" s="2" t="str">
-        <f>A18</f>
-        <v>Reponsabilidad 4</v>
+        <f>A21</f>
+        <v>Eliminar TipoServicio</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1624,34 +2187,34 @@
       <c r="I5" s="5"/>
       <c r="J5" s="13"/>
       <c r="K5" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="30"/>
+        <v>49</v>
+      </c>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="29"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1666,34 +2229,34 @@
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
       <c r="K6" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="30"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="29"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1708,34 +2271,34 @@
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
       <c r="K7" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="29"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
     </row>
     <row r="10" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -1750,55 +2313,55 @@
     </row>
     <row r="11" spans="1:20" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="79" t="str">
+        <v>54</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="45" t="str">
         <f>A6</f>
         <v>Nombre</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55" t="s">
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55" t="s">
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55" t="s">
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="58"/>
+      <c r="R13" s="64"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="18" t="s">
         <v>28</v>
       </c>
@@ -1811,12 +2374,12 @@
       <c r="J14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="57" t="s">
+      <c r="K14" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
       <c r="O14" s="18" t="s">
         <v>30</v>
       </c>
@@ -1826,114 +2389,258 @@
       <c r="Q14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="24" t="s">
+      <c r="R14" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="25"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="26"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="29"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="32"/>
+      <c r="A15" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="86" t="str">
+        <f>B7</f>
+        <v>ALFANUMERICO</v>
+      </c>
+      <c r="I15" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="86"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="R15" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="91"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q16" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="R16" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="103"/>
+      <c r="C17" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="108" t="str">
+        <f>B7</f>
+        <v>ALFANUMERICO</v>
+      </c>
+      <c r="I17" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="110"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="R17" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="114"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="R18" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="126"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="R19" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="139"/>
+      <c r="C20" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="140" t="str">
+        <f>B7</f>
+        <v>ALFANUMERICO</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="R20" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="141" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="142"/>
+      <c r="C21" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="143" t="str">
+        <f>B7</f>
+        <v>ALFANUMERICO</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="39"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q21" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="R21" s="31" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
+  <mergeCells count="31">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="K21:N21"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -1943,20 +2650,33 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:N16"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="C17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:N19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
-    <hyperlink ref="H18" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{9CFC97C1-FDC7-4BCC-A442-03CBBA306898}"/>
     <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{C31578C6-097C-48B5-85BE-E2B5695507BB}"/>
     <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{12E63051-0357-4C9D-ABE2-AAC9F4D1077D}"/>
     <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{1EEF2DB2-A99F-4C59-8304-4835FA7407E0}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{821E0C47-3835-4659-B0FA-56687A0DE151}"/>
-    <hyperlink ref="A15:B15" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{22905DC7-C781-450C-BA99-3B5AF5CDD56E}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{98480B8D-5789-4D0D-9A12-1FCE9FA5B81E}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{F66CECC3-2EE1-49F8-9E57-39E041254432}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{1BF344DA-00DC-4E3D-9686-31B0C99A39F5}"/>
     <hyperlink ref="C11" location="'Objeto Dominio-TipoServicio'!A6" display="'Objeto Dominio-TipoServicio'!A6" xr:uid="{A7D807A7-549D-44CC-9B00-3A3822ED0435}"/>
+    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{4D397CE3-3040-4BBB-BCD8-B4D9D51B816E}"/>
+    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{2AF0E4C1-04F0-4175-B44C-BD527D31CD41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1965,11 +2685,749 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:R26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="94.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="67" t="str">
+        <f>'Listado Objetos de Dominio'!A2</f>
+        <v>Servicio</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="68" t="str">
+        <f>'Listado Objetos de Dominio'!B2</f>
+        <v>Objeto de dominio que contiene información detallada sobre los servicios específicos ofrecidos por el spa</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="35" t="str">
+        <f>A19</f>
+        <v>crear Servicio</v>
+      </c>
+      <c r="R4" s="33" t="str">
+        <f>A22</f>
+        <v>modificar Servicio</v>
+      </c>
+      <c r="S4" s="34" t="str">
+        <f>A25</f>
+        <v>Consultar Servicio</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f>A26</f>
+        <v>Eliminar Servicio</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="29"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>60</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="29"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="29"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="str">
+        <f>'Objeto Dominio-TipoServicio'!B2</f>
+        <v>TipoServicio</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="29"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="47" t="str">
+        <f>A6</f>
+        <v>Nombre</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="75"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="49" t="str">
+        <f>A7</f>
+        <v>Precio</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="64"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="81"/>
+      <c r="C19" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" s="86"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="145"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="155"/>
+      <c r="O20" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="91"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q21" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="R21" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="103"/>
+      <c r="C22" s="104" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="109" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="110"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="R22" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="114"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="R23" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="126"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="137"/>
+      <c r="O24" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q24" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="R24" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="138" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="139"/>
+      <c r="C25" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="140" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="37"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="R25" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="141" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="142"/>
+      <c r="C26" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="143" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" s="39"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="P26" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q26" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="R26" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="C19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:N21"/>
+    <mergeCell ref="A22:B24"/>
+    <mergeCell ref="C22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:F18"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio 1'!A17" display="'Objeto Dominio 1'!A17" xr:uid="{A2870EFD-A505-493E-87E8-2E1411795896}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio 1'!A18" display="'Objeto Dominio 1'!A18" xr:uid="{255B7490-DDA4-4BEF-98CA-B99448352900}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio 1'!A19" display="'Objeto Dominio 1'!A19" xr:uid="{706882A1-07E0-4948-8B9C-8861D2CC8FE3}"/>
+    <hyperlink ref="Q4" location="'Objeto Dominio 1'!A16" display="'Objeto Dominio 1'!A16" xr:uid="{B7DC66C7-CAF0-414F-9819-29E983398B1B}"/>
+    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{EDAD5212-8D62-4F21-A63F-5CE874FBE78D}"/>
+    <hyperlink ref="A8" location="'Objeto Dominio-TipoServicio'!A1" display="'Objeto Dominio-TipoServicio'!A1" xr:uid="{4D172658-553F-4969-A1D7-D1F01539FA5D}"/>
+    <hyperlink ref="C12" location="'Objeto Dominio-Servicio'!A6" display="'Objeto Dominio-Servicio'!A6" xr:uid="{ABD19270-FA68-4946-8442-BEFCC7D7025B}"/>
+    <hyperlink ref="C13" location="'Objeto Dominio-Servicio'!A7" display="'Objeto Dominio-Servicio'!A7" xr:uid="{85266130-ECFC-4FC7-955C-AE44D6DEF06E}"/>
+    <hyperlink ref="A26:B26" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{B401149D-CF8E-4A70-B86B-6478B7D0471A}"/>
+    <hyperlink ref="A25:B25" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{D3754490-8E64-414C-BBFC-93CFDCD54200}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,70 +3457,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="49" t="str">
-        <f>'Listado Objetos de Dominio'!A2</f>
-        <v>Servicio</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
+      <c r="B2" s="67" t="str">
+        <f>'Listado Objetos de Dominio'!$A$4</f>
+        <v>Oferta</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="50" t="str">
-        <f>'Listado Objetos de Dominio'!B2</f>
-        <v>Objeto de dominio que contiene información detallada sobre los servicios específicos ofrecidos por el spa</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
+      <c r="B3" s="68" t="str">
+        <f>'Listado Objetos de Dominio'!$B$4</f>
+        <v>Objeto de dominio que contiene información sobre las ofertas especiales asociadas a los servicios ofrecidos por el spa</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2113,29 +3571,29 @@
       <c r="P4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="36" t="str">
-        <f>A19</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="34" t="str">
-        <f>A20</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="35" t="str">
+      <c r="Q4" s="35" t="str">
+        <f>A18</f>
+        <v>crear Oferta</v>
+      </c>
+      <c r="R4" s="33" t="str">
         <f>A21</f>
-        <v>Reponsabilidad 3</v>
+        <v>modificar Oferta</v>
+      </c>
+      <c r="S4" s="34" t="str">
+        <f>A24</f>
+        <v>Consultar Oferta</v>
       </c>
       <c r="T4" s="2" t="str">
-        <f>A22</f>
-        <v>Reponsabilidad 4</v>
+        <f>A25</f>
+        <v>Eliminar Oferta</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2148,41 +3606,37 @@
       <c r="I5" s="5"/>
       <c r="J5" s="13"/>
       <c r="K5" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="30"/>
+        <v>68</v>
+      </c>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="29"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>60</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -2190,34 +3644,34 @@
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
       <c r="K6" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="30"/>
+        <v>69</v>
+      </c>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="29"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2228,621 +3682,68 @@
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
       <c r="K7" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="30"/>
+        <v>70</v>
+      </c>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="29"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="80" t="str">
-        <f>'Objeto Dominio-TipoServicio'!B2</f>
-        <v>TipoServicio</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="30"/>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="81" t="s">
+      <c r="A8" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B8" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="85" t="str">
-        <f>A6</f>
-        <v>Nombre</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="87" t="str">
-        <f>A7</f>
-        <v>Precio</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" s="58"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="R18" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="25"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="26"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="29"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:F18"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="K22:N22"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
-    <hyperlink ref="H22" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{25C12BD1-D4FF-4A66-A1D2-16B9D6F696EA}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 1'!A17" display="'Objeto Dominio 1'!A17" xr:uid="{A2870EFD-A505-493E-87E8-2E1411795896}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 1'!A18" display="'Objeto Dominio 1'!A18" xr:uid="{255B7490-DDA4-4BEF-98CA-B99448352900}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 1'!A19" display="'Objeto Dominio 1'!A19" xr:uid="{706882A1-07E0-4948-8B9C-8861D2CC8FE3}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio 1'!R4" display="Reponsabilidad 2" xr:uid="{B337A699-0CE0-4F38-BF55-7E8C0A137EBF}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio 1'!Q4" display="Reponsabilidad 1" xr:uid="{D0D0BC22-347D-4800-B48E-FEA2C5DF8B46}"/>
-    <hyperlink ref="A22:B22" location="'Objeto Dominio 1'!T4" display="Reponsabilidad 4" xr:uid="{715E6582-9CD3-4DEC-9198-02819694A183}"/>
-    <hyperlink ref="Q4" location="'Objeto Dominio 1'!A16" display="'Objeto Dominio 1'!A16" xr:uid="{B7DC66C7-CAF0-414F-9819-29E983398B1B}"/>
-    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{EDAD5212-8D62-4F21-A63F-5CE874FBE78D}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio 1'!S4" display="Reponsabilidad 3" xr:uid="{DBE4323C-BAC1-4FB0-A412-5378CE0BAF9B}"/>
-    <hyperlink ref="A8" location="'Objeto Dominio-TipoServicio'!A1" display="'Objeto Dominio-TipoServicio'!A1" xr:uid="{4D172658-553F-4969-A1D7-D1F01539FA5D}"/>
-    <hyperlink ref="C12" location="'Objeto Dominio-Servicio'!A6" display="'Objeto Dominio-Servicio'!A6" xr:uid="{ABD19270-FA68-4946-8442-BEFCC7D7025B}"/>
-    <hyperlink ref="C13" location="'Objeto Dominio-Servicio'!A7" display="'Objeto Dominio-Servicio'!A7" xr:uid="{85266130-ECFC-4FC7-955C-AE44D6DEF06E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
-  <dimension ref="A1:T21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="94.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="49" t="str">
-        <f>'Listado Objetos de Dominio'!$A$4</f>
-        <v>Oferta</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="50" t="str">
-        <f>'Listado Objetos de Dominio'!$B$4</f>
-        <v>Objeto de dominio que contiene información sobre las ofertas especiales asociadas a los servicios ofrecidos por el spa</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="36" t="str">
-        <f>A18</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="34" t="str">
-        <f>A19</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="35" t="str">
-        <f>A20</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="T4" s="2" t="str">
-        <f>A21</f>
-        <v>Reponsabilidad 4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="30"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="30"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="30"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="89" t="s">
+      <c r="O8" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="93"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="95"/>
-    </row>
-    <row r="9" spans="1:20" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="str">
+      <c r="Q8" s="54"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+    </row>
+    <row r="9" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="str">
         <f>'Objeto Dominio-Servicio'!B2</f>
         <v>Servicio</v>
       </c>
@@ -2861,18 +3762,18 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="30"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="29"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
@@ -2886,65 +3787,65 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="85" t="str">
+      <c r="A13" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="47" t="str">
         <f>A6</f>
         <v>Descuento</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="86" t="str">
+      <c r="A14" s="79"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="48" t="str">
         <f>A9</f>
         <v>Servicio</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55" t="s">
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55" t="s">
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55" t="s">
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55" t="s">
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="58"/>
+      <c r="R16" s="64"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="18" t="s">
         <v>28</v>
       </c>
@@ -2957,12 +3858,12 @@
       <c r="J17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
       <c r="O17" s="18" t="s">
         <v>30</v>
       </c>
@@ -2972,100 +3873,302 @@
       <c r="Q17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="R17" s="24" t="s">
+      <c r="R17" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="25"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="26"/>
+      <c r="A18" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="144" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" s="86"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="R18" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="145"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q19" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="29"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="32"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q20" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" s="110"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="P21" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q21" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="R21" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="114"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="R22" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="126"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="134"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="R23" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="138" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="139"/>
+      <c r="C24" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="140" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" s="37"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="R24" s="28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="141" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="142"/>
+      <c r="C25" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="143" t="s">
+        <v>152</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" s="39"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q25" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="R25" s="31" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="33">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K21:N23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="C18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:N20"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="C21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:F17"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K17:N17"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -3073,40 +4176,19 @@
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:F17"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
-    <hyperlink ref="H21" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{A29B7F90-D824-4DAD-9FA9-495F9A36C796}"/>
     <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{E9D8D2B5-1A04-41BF-9815-B2A1291CEA12}"/>
     <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{43D6E7D0-C1EE-421C-81D4-88BA062E1DD3}"/>
     <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{DFFE25A9-85CA-4C20-92B1-340B3519D7CB}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{CC437FE8-5439-4F9D-A213-37CD4CE40D61}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{569A762E-ABC8-4F9E-B1BC-206CEE185870}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{8F16CC7B-78EA-40A1-B4A4-EFB8DF25A1CD}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{1669EBF2-84DE-4EDB-8C3B-38EB8B625A26}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BCAD9F6E-1607-4E0B-B462-EB54499EDC59}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{4AEC65EE-67F5-4704-BC31-8B093F6B432C}"/>
     <hyperlink ref="A9" location="'Objeto Dominio-Servicio'!A1" display="'Objeto Dominio-Servicio'!A1" xr:uid="{F111009A-A7EA-41D5-B8F5-B85937619FE5}"/>
     <hyperlink ref="C13" location="'Objeto Dominio N'!A6" display="'Objeto Dominio N'!A6" xr:uid="{79C5E69E-A852-4F31-BAD0-8D278F4B550C}"/>
     <hyperlink ref="C14" location="'Objeto Dominio N'!A9" display="'Objeto Dominio N'!A9" xr:uid="{5B83525C-0EA4-4B4E-AE74-8155AD310E59}"/>
+    <hyperlink ref="A25:B25" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{4898CD3E-BA0D-4952-BBB8-24202203F9BE}"/>
+    <hyperlink ref="A24:B24" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{04ED7878-C1FB-44E7-98C1-65A5AFA2BD9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3258,18 +4340,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3291,18 +4373,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Servicios.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Servicios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominioEnriquecido/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07988D5-18A1-445B-A7E9-FF17B2954EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C07988D5-18A1-445B-A7E9-FF17B2954EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F42EE28C-F00C-4AC9-A573-8277B5CFFF87}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="5" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="8" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="294">
   <si>
     <t>Nombre</t>
   </si>
@@ -946,6 +946,9 @@
   </si>
   <si>
     <t>Se genera una excepcion indicando que ya existe un Evento con el mismo nombre</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -1989,7 +1992,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2373,6 +2376,130 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2481,147 +2608,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2665,141 +2651,28 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2810,31 +2683,140 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3225,8 +3207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3394,7 +3376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3425,70 +3407,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="193" t="str">
+      <c r="B2" s="141" t="str">
         <f>'Listado Objetos de Dominio'!A3</f>
         <v>TipoServicio</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="194" t="str">
+      <c r="B3" s="142" t="str">
         <f>'Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que contiene información sobre los tipos de servicios ofrecidos por el spa, como masajes, tratamientos faciales, pedicura.</v>
       </c>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="194"/>
-      <c r="P3" s="194"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3639,11 +3621,11 @@
       <c r="T6" s="29"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="195" t="s">
+      <c r="A8" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="196"/>
-      <c r="C8" s="197"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="145"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
@@ -3669,44 +3651,44 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="198" t="s">
+      <c r="A12" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="167"/>
-      <c r="C12" s="167" t="s">
+      <c r="B12" s="147"/>
+      <c r="C12" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167" t="s">
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167" t="s">
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="167"/>
-      <c r="L12" s="167"/>
-      <c r="M12" s="167"/>
-      <c r="N12" s="167"/>
-      <c r="O12" s="167" t="s">
+      <c r="K12" s="147"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="147"/>
+      <c r="N12" s="147"/>
+      <c r="O12" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="167"/>
-      <c r="Q12" s="167" t="s">
+      <c r="P12" s="147"/>
+      <c r="Q12" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="168"/>
+      <c r="R12" s="150"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="199"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
+      <c r="A13" s="148"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
       <c r="G13" s="18" t="s">
         <v>28</v>
       </c>
@@ -3719,12 +3701,12 @@
       <c r="J13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="169" t="s">
+      <c r="K13" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="169"/>
-      <c r="M13" s="169"/>
-      <c r="N13" s="169"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="149"/>
       <c r="O13" s="18" t="s">
         <v>30</v>
       </c>
@@ -3739,30 +3721,30 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="170" t="s">
+      <c r="A14" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="171"/>
-      <c r="C14" s="174" t="s">
+      <c r="B14" s="152"/>
+      <c r="C14" s="155" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="175"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="180" t="s">
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="182" t="s">
+      <c r="H14" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="184" t="s">
+      <c r="I14" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="182"/>
-      <c r="K14" s="186"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="188"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="167"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="168"/>
+      <c r="N14" s="169"/>
       <c r="O14" s="19" t="s">
         <v>80</v>
       </c>
@@ -3777,20 +3759,20 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="172"/>
-      <c r="B15" s="173"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="189"/>
-      <c r="L15" s="190"/>
-      <c r="M15" s="190"/>
-      <c r="N15" s="191"/>
+      <c r="A15" s="153"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="172"/>
       <c r="O15" s="19" t="s">
         <v>81</v>
       </c>
@@ -3805,30 +3787,30 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="185" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="149" t="s">
+      <c r="B16" s="186"/>
+      <c r="C16" s="191" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="158" t="s">
+      <c r="D16" s="192"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="161" t="s">
+      <c r="H16" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="164" t="s">
+      <c r="I16" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="131"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="136"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="178"/>
       <c r="O16" s="21" t="s">
         <v>82</v>
       </c>
@@ -3843,20 +3825,20 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="145"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="138"/>
-      <c r="N17" s="139"/>
+      <c r="A17" s="187"/>
+      <c r="B17" s="188"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="207"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="179"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="181"/>
       <c r="O17" s="21" t="s">
         <v>81</v>
       </c>
@@ -3871,20 +3853,20 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="147"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="142"/>
+      <c r="A18" s="189"/>
+      <c r="B18" s="190"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="182"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="183"/>
+      <c r="N18" s="184"/>
       <c r="O18" s="21" t="s">
         <v>83</v>
       </c>
@@ -3899,16 +3881,16 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="200" t="s">
+      <c r="A19" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="201"/>
-      <c r="C19" s="202" t="s">
+      <c r="B19" s="133"/>
+      <c r="C19" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="202"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="202"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
       <c r="G19" s="37" t="s">
         <v>40</v>
       </c>
@@ -3919,10 +3901,10 @@
         <v>79</v>
       </c>
       <c r="J19" s="37"/>
-      <c r="K19" s="203"/>
-      <c r="L19" s="203"/>
-      <c r="M19" s="203"/>
-      <c r="N19" s="203"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
       <c r="O19" s="26" t="s">
         <v>84</v>
       </c>
@@ -3937,16 +3919,16 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="204" t="s">
+      <c r="A20" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="205"/>
-      <c r="C20" s="206" t="s">
+      <c r="B20" s="137"/>
+      <c r="C20" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="206"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="206"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
       <c r="G20" s="39" t="s">
         <v>40</v>
       </c>
@@ -3957,10 +3939,10 @@
         <v>177</v>
       </c>
       <c r="J20" s="39"/>
-      <c r="K20" s="207"/>
-      <c r="L20" s="207"/>
-      <c r="M20" s="207"/>
-      <c r="N20" s="207"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
       <c r="O20" s="29" t="s">
         <v>85</v>
       </c>
@@ -3976,12 +3958,22 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:N18"/>
+    <mergeCell ref="A16:B18"/>
+    <mergeCell ref="C16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:N15"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -3991,22 +3983,12 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:N15"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:N18"/>
-    <mergeCell ref="A16:B18"/>
-    <mergeCell ref="C16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -4028,9 +4010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4060,70 +4042,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="193" t="str">
+      <c r="B2" s="141" t="str">
         <f>'Listado Objetos de Dominio'!A2</f>
         <v>Servicio</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="194" t="str">
+      <c r="B3" s="142" t="str">
         <f>'Listado Objetos de Dominio'!B2</f>
         <v>Objeto de dominio que contiene información detallada sobre los servicios específicos ofrecidos por el spa</v>
       </c>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="194"/>
-      <c r="P3" s="194"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -4370,11 +4352,11 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="197"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="145"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
@@ -4388,62 +4370,62 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="208" t="s">
+      <c r="A13" s="223" t="s">
         <v>220</v>
       </c>
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="225" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="212" t="str">
+      <c r="C13" s="227" t="str">
         <f>A6</f>
         <v>Nombre</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="209"/>
-      <c r="B14" s="211"/>
-      <c r="C14" s="213"/>
+      <c r="A14" s="224"/>
+      <c r="B14" s="226"/>
+      <c r="C14" s="228"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="198" t="s">
+      <c r="A18" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="167"/>
-      <c r="C18" s="167" t="s">
+      <c r="B18" s="147"/>
+      <c r="C18" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167" t="s">
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="167"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="167" t="s">
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="167"/>
-      <c r="L18" s="167"/>
-      <c r="M18" s="167"/>
-      <c r="N18" s="167"/>
-      <c r="O18" s="167" t="s">
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="167"/>
-      <c r="Q18" s="167" t="s">
+      <c r="P18" s="147"/>
+      <c r="Q18" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="168"/>
+      <c r="R18" s="150"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="199"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
+      <c r="A19" s="148"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
       <c r="G19" s="18" t="s">
         <v>28</v>
       </c>
@@ -4456,12 +4438,12 @@
       <c r="J19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="169" t="s">
+      <c r="K19" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="169"/>
-      <c r="M19" s="169"/>
-      <c r="N19" s="169"/>
+      <c r="L19" s="149"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="149"/>
       <c r="O19" s="18" t="s">
         <v>30</v>
       </c>
@@ -4476,30 +4458,30 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="170" t="s">
+      <c r="A20" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="171"/>
-      <c r="C20" s="174" t="s">
+      <c r="B20" s="152"/>
+      <c r="C20" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="180" t="s">
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="224" t="s">
+      <c r="H20" s="219" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="184" t="s">
+      <c r="I20" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="182"/>
-      <c r="K20" s="186"/>
-      <c r="L20" s="187"/>
-      <c r="M20" s="187"/>
-      <c r="N20" s="188"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="167"/>
+      <c r="L20" s="168"/>
+      <c r="M20" s="168"/>
+      <c r="N20" s="169"/>
       <c r="O20" s="19" t="s">
         <v>111</v>
       </c>
@@ -4514,20 +4496,20 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="218"/>
-      <c r="B21" s="219"/>
-      <c r="C21" s="220"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="221"/>
-      <c r="F21" s="222"/>
-      <c r="G21" s="223"/>
-      <c r="H21" s="225"/>
-      <c r="I21" s="227"/>
-      <c r="J21" s="214"/>
-      <c r="K21" s="215"/>
-      <c r="L21" s="216"/>
-      <c r="M21" s="216"/>
-      <c r="N21" s="217"/>
+      <c r="A21" s="213"/>
+      <c r="B21" s="214"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="216"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="217"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="220"/>
+      <c r="I21" s="222"/>
+      <c r="J21" s="209"/>
+      <c r="K21" s="210"/>
+      <c r="L21" s="211"/>
+      <c r="M21" s="211"/>
+      <c r="N21" s="212"/>
       <c r="O21" s="19" t="s">
         <v>112</v>
       </c>
@@ -4542,20 +4524,20 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="172"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="226"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="189"/>
-      <c r="L22" s="190"/>
-      <c r="M22" s="190"/>
-      <c r="N22" s="191"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="221"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="171"/>
+      <c r="M22" s="171"/>
+      <c r="N22" s="172"/>
       <c r="O22" s="19" t="s">
         <v>113</v>
       </c>
@@ -4570,30 +4552,30 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="143" t="s">
+      <c r="A23" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="144"/>
-      <c r="C23" s="149" t="s">
+      <c r="B23" s="186"/>
+      <c r="C23" s="191" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="158" t="s">
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="161" t="s">
+      <c r="H23" s="203" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="164" t="s">
+      <c r="I23" s="206" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="131"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="136"/>
+      <c r="J23" s="173"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="177"/>
+      <c r="M23" s="177"/>
+      <c r="N23" s="178"/>
       <c r="O23" s="21" t="s">
         <v>114</v>
       </c>
@@ -4608,20 +4590,20 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="145"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="139"/>
+      <c r="A24" s="187"/>
+      <c r="B24" s="188"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="201"/>
+      <c r="H24" s="204"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="179"/>
+      <c r="L24" s="180"/>
+      <c r="M24" s="180"/>
+      <c r="N24" s="181"/>
       <c r="O24" s="21" t="s">
         <v>112</v>
       </c>
@@ -4636,20 +4618,20 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="147"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="140"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="142"/>
+      <c r="A25" s="189"/>
+      <c r="B25" s="190"/>
+      <c r="C25" s="197"/>
+      <c r="D25" s="198"/>
+      <c r="E25" s="198"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="208"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="182"/>
+      <c r="L25" s="183"/>
+      <c r="M25" s="183"/>
+      <c r="N25" s="184"/>
       <c r="O25" s="21" t="s">
         <v>115</v>
       </c>
@@ -4664,16 +4646,16 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="200" t="s">
+      <c r="A26" s="132" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="201"/>
-      <c r="C26" s="202" t="s">
+      <c r="B26" s="133"/>
+      <c r="C26" s="134" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="202"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
       <c r="G26" s="37" t="s">
         <v>37</v>
       </c>
@@ -4684,10 +4666,10 @@
         <v>110</v>
       </c>
       <c r="J26" s="37"/>
-      <c r="K26" s="203"/>
-      <c r="L26" s="203"/>
-      <c r="M26" s="203"/>
-      <c r="N26" s="203"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="135"/>
       <c r="O26" s="26" t="s">
         <v>116</v>
       </c>
@@ -4702,16 +4684,16 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="204" t="s">
+      <c r="A27" s="136" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="205"/>
-      <c r="C27" s="206" t="s">
+      <c r="B27" s="137"/>
+      <c r="C27" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="206"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="206"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
       <c r="G27" s="39" t="s">
         <v>37</v>
       </c>
@@ -4722,10 +4704,10 @@
         <v>222</v>
       </c>
       <c r="J27" s="39"/>
-      <c r="K27" s="207"/>
-      <c r="L27" s="207"/>
-      <c r="M27" s="207"/>
-      <c r="N27" s="207"/>
+      <c r="K27" s="139"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="139"/>
       <c r="O27" s="29" t="s">
         <v>117</v>
       </c>
@@ -4741,26 +4723,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:N22"/>
-    <mergeCell ref="A23:B25"/>
-    <mergeCell ref="C23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="A20:B22"/>
-    <mergeCell ref="C20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="K19:N19"/>
     <mergeCell ref="A1:P1"/>
@@ -4775,6 +4737,26 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:N22"/>
+    <mergeCell ref="A23:B25"/>
+    <mergeCell ref="C23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="A20:B22"/>
+    <mergeCell ref="C20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="K26:N26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -4796,7 +4778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -4827,70 +4809,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="193" t="str">
+      <c r="B2" s="141" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Oferta</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="194" t="str">
+      <c r="B3" s="142" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene información sobre las ofertas especiales asociadas a los servicios ofrecidos por el spa</v>
       </c>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="194"/>
-      <c r="P3" s="194"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -5199,11 +5181,11 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="195" t="s">
+      <c r="A12" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="196"/>
-      <c r="C12" s="197"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="145"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
@@ -5217,10 +5199,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="228" t="s">
+      <c r="A14" s="229" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="210" t="s">
+      <c r="B14" s="225" t="s">
         <v>66</v>
       </c>
       <c r="C14" s="47" t="str">
@@ -5229,8 +5211,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="229"/>
-      <c r="B15" s="211"/>
+      <c r="A15" s="230"/>
+      <c r="B15" s="226"/>
       <c r="C15" s="48" t="str">
         <f>A10</f>
         <v>Servicio</v>
@@ -5238,44 +5220,44 @@
     </row>
     <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="198" t="s">
+      <c r="A17" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="167"/>
-      <c r="C17" s="167" t="s">
+      <c r="B17" s="147"/>
+      <c r="C17" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167" t="s">
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167" t="s">
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="167"/>
-      <c r="L17" s="167"/>
-      <c r="M17" s="167"/>
-      <c r="N17" s="167"/>
-      <c r="O17" s="167" t="s">
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="167"/>
-      <c r="Q17" s="167" t="s">
+      <c r="P17" s="147"/>
+      <c r="Q17" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="168"/>
+      <c r="R17" s="150"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="199"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
+      <c r="A18" s="148"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
       <c r="G18" s="18" t="s">
         <v>28</v>
       </c>
@@ -5288,12 +5270,12 @@
       <c r="J18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="169" t="s">
+      <c r="K18" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="169"/>
-      <c r="M18" s="169"/>
-      <c r="N18" s="169"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="149"/>
       <c r="O18" s="18" t="s">
         <v>30</v>
       </c>
@@ -5308,30 +5290,30 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="170" t="s">
+      <c r="A19" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="171"/>
-      <c r="C19" s="174" t="s">
+      <c r="B19" s="152"/>
+      <c r="C19" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="180" t="s">
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="224" t="s">
+      <c r="H19" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="184" t="s">
+      <c r="I19" s="165" t="s">
         <v>144</v>
       </c>
-      <c r="J19" s="182"/>
-      <c r="K19" s="186"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="187"/>
-      <c r="N19" s="188"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="167"/>
+      <c r="L19" s="168"/>
+      <c r="M19" s="168"/>
+      <c r="N19" s="169"/>
       <c r="O19" s="19" t="s">
         <v>145</v>
       </c>
@@ -5346,20 +5328,20 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="218"/>
-      <c r="B20" s="219"/>
-      <c r="C20" s="220"/>
-      <c r="D20" s="221"/>
-      <c r="E20" s="221"/>
-      <c r="F20" s="222"/>
-      <c r="G20" s="223"/>
-      <c r="H20" s="225"/>
-      <c r="I20" s="227"/>
-      <c r="J20" s="214"/>
-      <c r="K20" s="215"/>
-      <c r="L20" s="216"/>
-      <c r="M20" s="216"/>
-      <c r="N20" s="217"/>
+      <c r="A20" s="213"/>
+      <c r="B20" s="214"/>
+      <c r="C20" s="215"/>
+      <c r="D20" s="216"/>
+      <c r="E20" s="216"/>
+      <c r="F20" s="217"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="220"/>
+      <c r="I20" s="222"/>
+      <c r="J20" s="209"/>
+      <c r="K20" s="210"/>
+      <c r="L20" s="211"/>
+      <c r="M20" s="211"/>
+      <c r="N20" s="212"/>
       <c r="O20" s="19" t="s">
         <v>146</v>
       </c>
@@ -5374,20 +5356,20 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="172"/>
-      <c r="B21" s="173"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="226"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="189"/>
-      <c r="L21" s="190"/>
-      <c r="M21" s="190"/>
-      <c r="N21" s="191"/>
+      <c r="A21" s="153"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="170"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="171"/>
+      <c r="N21" s="172"/>
       <c r="O21" s="19" t="s">
         <v>147</v>
       </c>
@@ -5402,30 +5384,30 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="143" t="s">
+      <c r="A22" s="185" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="144"/>
-      <c r="C22" s="149" t="s">
+      <c r="B22" s="186"/>
+      <c r="C22" s="191" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="158" t="s">
+      <c r="D22" s="192"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="193"/>
+      <c r="G22" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="161" t="s">
+      <c r="H22" s="203" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="164" t="s">
+      <c r="I22" s="206" t="s">
         <v>143</v>
       </c>
-      <c r="J22" s="131"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="136"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="176"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="178"/>
       <c r="O22" s="21" t="s">
         <v>148</v>
       </c>
@@ -5440,20 +5422,20 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="145"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="139"/>
+      <c r="A23" s="187"/>
+      <c r="B23" s="188"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="201"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="174"/>
+      <c r="K23" s="179"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="181"/>
       <c r="O23" s="21" t="s">
         <v>146</v>
       </c>
@@ -5468,20 +5450,20 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="147"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="140"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="142"/>
+      <c r="A24" s="189"/>
+      <c r="B24" s="190"/>
+      <c r="C24" s="197"/>
+      <c r="D24" s="198"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="205"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="182"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="184"/>
       <c r="O24" s="21" t="s">
         <v>149</v>
       </c>
@@ -5496,16 +5478,16 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="200" t="s">
+      <c r="A25" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="201"/>
-      <c r="C25" s="202" t="s">
+      <c r="B25" s="133"/>
+      <c r="C25" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="202"/>
-      <c r="E25" s="202"/>
-      <c r="F25" s="202"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
       <c r="G25" s="37" t="s">
         <v>41</v>
       </c>
@@ -5516,10 +5498,10 @@
         <v>142</v>
       </c>
       <c r="J25" s="37"/>
-      <c r="K25" s="203"/>
-      <c r="L25" s="203"/>
-      <c r="M25" s="203"/>
-      <c r="N25" s="203"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
       <c r="O25" s="26" t="s">
         <v>150</v>
       </c>
@@ -5534,16 +5516,16 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="204" t="s">
+      <c r="A26" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="205"/>
-      <c r="C26" s="206" t="s">
+      <c r="B26" s="137"/>
+      <c r="C26" s="138" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="206"/>
-      <c r="E26" s="206"/>
-      <c r="F26" s="206"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
       <c r="G26" s="39" t="s">
         <v>41</v>
       </c>
@@ -5554,10 +5536,10 @@
         <v>141</v>
       </c>
       <c r="J26" s="39"/>
-      <c r="K26" s="207"/>
-      <c r="L26" s="207"/>
-      <c r="M26" s="207"/>
-      <c r="N26" s="207"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="139"/>
       <c r="O26" s="29" t="s">
         <v>151</v>
       </c>
@@ -5573,16 +5555,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:F18"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="K18:N18"/>
     <mergeCell ref="J19:J21"/>
@@ -5595,17 +5578,16 @@
     <mergeCell ref="G19:G21"/>
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="I19:I21"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:F18"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="K25:N25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
@@ -5629,8 +5611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32100533-1BA1-4516-AD9E-E510BD79A86F}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5660,70 +5642,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="193" t="str">
+      <c r="B2" s="141" t="str">
         <f>'Listado Objetos de Dominio'!A7</f>
         <v>Evento</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="194" t="str">
+      <c r="B3" s="142" t="str">
         <f>'Listado Objetos de Dominio'!$B$7</f>
         <v>Objeto de dominio que contiene la informacion sobre los eventos que estan asociados a las ofertas</v>
       </c>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="194"/>
-      <c r="P3" s="194"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -5914,7 +5896,7 @@
       <c r="T7" s="29"/>
     </row>
     <row r="8" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="304" t="s">
+      <c r="A8" s="131" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="57" t="s">
@@ -5951,35 +5933,35 @@
       <c r="S8" s="26"/>
       <c r="T8" s="29"/>
     </row>
-    <row r="9" spans="1:20" s="303" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="119"/>
-      <c r="B9" s="296"/>
-      <c r="C9" s="296"/>
-      <c r="D9" s="296"/>
-      <c r="E9" s="296"/>
-      <c r="F9" s="296"/>
-      <c r="G9" s="296"/>
-      <c r="H9" s="296"/>
-      <c r="I9" s="296"/>
-      <c r="J9" s="297"/>
-      <c r="K9" s="296"/>
-      <c r="L9" s="296"/>
-      <c r="M9" s="296"/>
-      <c r="N9" s="296"/>
-      <c r="O9" s="296"/>
-      <c r="P9" s="298"/>
-      <c r="Q9" s="299"/>
-      <c r="R9" s="300"/>
-      <c r="S9" s="301"/>
-      <c r="T9" s="302"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="123"/>
+      <c r="R9" s="124"/>
+      <c r="S9" s="125"/>
+      <c r="T9" s="126"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="197"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="145"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
@@ -5993,62 +5975,62 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="228" t="s">
+      <c r="A13" s="229" t="s">
         <v>265</v>
       </c>
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="225" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="212" t="str">
+      <c r="C13" s="227" t="str">
         <f>A6</f>
         <v>nombre</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="229"/>
-      <c r="B14" s="211"/>
-      <c r="C14" s="213"/>
+      <c r="A14" s="230"/>
+      <c r="B14" s="226"/>
+      <c r="C14" s="228"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="198" t="s">
+      <c r="A16" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167" t="s">
+      <c r="B16" s="147"/>
+      <c r="C16" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167" t="s">
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167" t="s">
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="167"/>
-      <c r="L16" s="167"/>
-      <c r="M16" s="167"/>
-      <c r="N16" s="167"/>
-      <c r="O16" s="167" t="s">
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="167"/>
-      <c r="Q16" s="167" t="s">
+      <c r="P16" s="147"/>
+      <c r="Q16" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="168"/>
+      <c r="R16" s="150"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="199"/>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
+      <c r="A17" s="148"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
       <c r="G17" s="18" t="s">
         <v>28</v>
       </c>
@@ -6061,12 +6043,12 @@
       <c r="J17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="169" t="s">
+      <c r="K17" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="169"/>
-      <c r="M17" s="169"/>
-      <c r="N17" s="169"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="149"/>
+      <c r="N17" s="149"/>
       <c r="O17" s="18" t="s">
         <v>30</v>
       </c>
@@ -6081,30 +6063,30 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="170" t="s">
+      <c r="A18" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="B18" s="171"/>
-      <c r="C18" s="174" t="s">
+      <c r="B18" s="152"/>
+      <c r="C18" s="155" t="s">
         <v>271</v>
       </c>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="180" t="s">
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="161" t="s">
         <v>173</v>
       </c>
-      <c r="H18" s="224" t="s">
+      <c r="H18" s="219" t="s">
         <v>173</v>
       </c>
-      <c r="I18" s="184" t="s">
+      <c r="I18" s="165" t="s">
         <v>275</v>
       </c>
-      <c r="J18" s="182"/>
-      <c r="K18" s="186"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="187"/>
-      <c r="N18" s="188"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="167"/>
+      <c r="L18" s="168"/>
+      <c r="M18" s="168"/>
+      <c r="N18" s="169"/>
       <c r="O18" s="19" t="s">
         <v>145</v>
       </c>
@@ -6119,20 +6101,20 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="218"/>
-      <c r="B19" s="219"/>
-      <c r="C19" s="220"/>
-      <c r="D19" s="221"/>
-      <c r="E19" s="221"/>
-      <c r="F19" s="222"/>
-      <c r="G19" s="223"/>
-      <c r="H19" s="225"/>
-      <c r="I19" s="227"/>
-      <c r="J19" s="214"/>
-      <c r="K19" s="215"/>
-      <c r="L19" s="216"/>
-      <c r="M19" s="216"/>
-      <c r="N19" s="217"/>
+      <c r="A19" s="213"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="216"/>
+      <c r="E19" s="216"/>
+      <c r="F19" s="217"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="220"/>
+      <c r="I19" s="222"/>
+      <c r="J19" s="209"/>
+      <c r="K19" s="210"/>
+      <c r="L19" s="211"/>
+      <c r="M19" s="211"/>
+      <c r="N19" s="212"/>
       <c r="O19" s="19" t="s">
         <v>146</v>
       </c>
@@ -6147,20 +6129,20 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="172"/>
-      <c r="B20" s="173"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="226"/>
-      <c r="I20" s="185"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="189"/>
-      <c r="L20" s="190"/>
-      <c r="M20" s="190"/>
-      <c r="N20" s="191"/>
+      <c r="A20" s="153"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="221"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="171"/>
+      <c r="M20" s="171"/>
+      <c r="N20" s="172"/>
       <c r="O20" s="19" t="s">
         <v>147</v>
       </c>
@@ -6175,30 +6157,30 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="143" t="s">
+      <c r="A21" s="185" t="s">
         <v>268</v>
       </c>
-      <c r="B21" s="144"/>
-      <c r="C21" s="149" t="s">
+      <c r="B21" s="186"/>
+      <c r="C21" s="191" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="158" t="s">
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="200" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="161" t="s">
+      <c r="H21" s="203" t="s">
         <v>173</v>
       </c>
-      <c r="I21" s="164" t="s">
+      <c r="I21" s="206" t="s">
         <v>276</v>
       </c>
-      <c r="J21" s="131"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="136"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="176"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="178"/>
       <c r="O21" s="21" t="s">
         <v>148</v>
       </c>
@@ -6213,20 +6195,20 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="145"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="139"/>
+      <c r="A22" s="187"/>
+      <c r="B22" s="188"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="195"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="201"/>
+      <c r="H22" s="204"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="181"/>
       <c r="O22" s="21" t="s">
         <v>146</v>
       </c>
@@ -6241,20 +6223,20 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="147"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="166"/>
-      <c r="J23" s="133"/>
-      <c r="K23" s="140"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="142"/>
+      <c r="A23" s="189"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="198"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="202"/>
+      <c r="H23" s="205"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="182"/>
+      <c r="L23" s="183"/>
+      <c r="M23" s="183"/>
+      <c r="N23" s="184"/>
       <c r="O23" s="21" t="s">
         <v>149</v>
       </c>
@@ -6269,16 +6251,16 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="200" t="s">
+      <c r="A24" s="132" t="s">
         <v>269</v>
       </c>
-      <c r="B24" s="201"/>
-      <c r="C24" s="202" t="s">
+      <c r="B24" s="133"/>
+      <c r="C24" s="134" t="s">
         <v>273</v>
       </c>
-      <c r="D24" s="202"/>
-      <c r="E24" s="202"/>
-      <c r="F24" s="202"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
       <c r="G24" s="37" t="s">
         <v>173</v>
       </c>
@@ -6289,10 +6271,10 @@
         <v>277</v>
       </c>
       <c r="J24" s="37"/>
-      <c r="K24" s="203"/>
-      <c r="L24" s="203"/>
-      <c r="M24" s="203"/>
-      <c r="N24" s="203"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
       <c r="O24" s="26" t="s">
         <v>150</v>
       </c>
@@ -6307,16 +6289,16 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="204" t="s">
+      <c r="A25" s="136" t="s">
         <v>270</v>
       </c>
-      <c r="B25" s="205"/>
-      <c r="C25" s="206" t="s">
+      <c r="B25" s="137"/>
+      <c r="C25" s="138" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="206"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="206"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
       <c r="G25" s="39" t="s">
         <v>173</v>
       </c>
@@ -6327,10 +6309,10 @@
         <v>278</v>
       </c>
       <c r="J25" s="39"/>
-      <c r="K25" s="207"/>
-      <c r="L25" s="207"/>
-      <c r="M25" s="207"/>
-      <c r="N25" s="207"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="139"/>
       <c r="O25" s="29" t="s">
         <v>151</v>
       </c>
@@ -6346,12 +6328,20 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:F17"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="O16:P16"/>
     <mergeCell ref="K18:N20"/>
     <mergeCell ref="A21:B23"/>
     <mergeCell ref="C21:F23"/>
@@ -6366,20 +6356,12 @@
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="J18:J20"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:F17"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="K25:N25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{58C87D8A-4A92-48FF-A6D3-ACFFA3919550}"/>
@@ -6419,70 +6401,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="192"/>
-      <c r="P1" s="192"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="293" t="str">
+      <c r="B2" s="231" t="str">
         <f>'Listado Objetos de Dominio'!A6</f>
         <v>Notificacion</v>
       </c>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
-      <c r="G2" s="294"/>
-      <c r="H2" s="294"/>
-      <c r="I2" s="294"/>
-      <c r="J2" s="294"/>
-      <c r="K2" s="294"/>
-      <c r="L2" s="294"/>
-      <c r="M2" s="294"/>
-      <c r="N2" s="294"/>
-      <c r="O2" s="294"/>
-      <c r="P2" s="295"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="233"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="194" t="str">
+      <c r="B3" s="142" t="str">
         <f>'Listado Objetos de Dominio'!B6</f>
         <v>Objeto de dominio que hace el consumo a tercero que notifica los eventos</v>
       </c>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="194"/>
-      <c r="P3" s="194"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -6740,24 +6722,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="234" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
-      <c r="N1" s="240"/>
-      <c r="O1" s="240"/>
-      <c r="P1" s="240"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="235"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="235"/>
       <c r="Q1" s="60"/>
       <c r="R1" s="60"/>
       <c r="S1" s="60"/>
@@ -6773,23 +6755,23 @@
       <c r="A2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="236" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="238"/>
-      <c r="P2" s="231"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="238"/>
       <c r="Q2" s="60"/>
       <c r="R2" s="60"/>
       <c r="S2" s="60"/>
@@ -6805,23 +6787,23 @@
       <c r="A3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="242" t="s">
+      <c r="B3" s="239" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="238"/>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238"/>
-      <c r="J3" s="238"/>
-      <c r="K3" s="238"/>
-      <c r="L3" s="238"/>
-      <c r="M3" s="238"/>
-      <c r="N3" s="238"/>
-      <c r="O3" s="238"/>
-      <c r="P3" s="231"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="238"/>
       <c r="Q3" s="60"/>
       <c r="R3" s="60"/>
       <c r="S3" s="60"/>
@@ -7024,11 +7006,11 @@
       <c r="Z7" s="60"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="243" t="s">
+      <c r="A8" s="240" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="244"/>
-      <c r="C8" s="245"/>
+      <c r="B8" s="241"/>
+      <c r="C8" s="242"/>
       <c r="D8" s="60"/>
       <c r="E8" s="60"/>
       <c r="F8" s="60"/>
@@ -7150,36 +7132,36 @@
       <c r="Z11" s="60"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="232" t="s">
+      <c r="A12" s="243" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="233"/>
-      <c r="C12" s="232" t="s">
+      <c r="B12" s="245"/>
+      <c r="C12" s="243" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="246"/>
-      <c r="E12" s="246"/>
-      <c r="F12" s="233"/>
-      <c r="G12" s="230" t="s">
+      <c r="D12" s="244"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="245"/>
+      <c r="G12" s="249" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="238"/>
-      <c r="I12" s="231"/>
-      <c r="J12" s="230" t="s">
+      <c r="H12" s="237"/>
+      <c r="I12" s="238"/>
+      <c r="J12" s="249" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="238"/>
-      <c r="L12" s="238"/>
-      <c r="M12" s="238"/>
-      <c r="N12" s="231"/>
-      <c r="O12" s="230" t="s">
+      <c r="K12" s="237"/>
+      <c r="L12" s="237"/>
+      <c r="M12" s="237"/>
+      <c r="N12" s="238"/>
+      <c r="O12" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="231"/>
-      <c r="Q12" s="230" t="s">
+      <c r="P12" s="238"/>
+      <c r="Q12" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="231"/>
+      <c r="R12" s="238"/>
       <c r="S12" s="60"/>
       <c r="T12" s="60"/>
       <c r="U12" s="60"/>
@@ -7190,12 +7172,12 @@
       <c r="Z12" s="60"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="234"/>
-      <c r="B13" s="235"/>
-      <c r="C13" s="234"/>
+      <c r="A13" s="246"/>
+      <c r="B13" s="248"/>
+      <c r="C13" s="246"/>
       <c r="D13" s="247"/>
       <c r="E13" s="247"/>
-      <c r="F13" s="235"/>
+      <c r="F13" s="248"/>
       <c r="G13" s="81" t="s">
         <v>28</v>
       </c>
@@ -7208,12 +7190,12 @@
       <c r="J13" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="230" t="s">
+      <c r="K13" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="238"/>
-      <c r="M13" s="238"/>
-      <c r="N13" s="231"/>
+      <c r="L13" s="237"/>
+      <c r="M13" s="237"/>
+      <c r="N13" s="238"/>
       <c r="O13" s="81" t="s">
         <v>30</v>
       </c>
@@ -7236,16 +7218,16 @@
       <c r="Z13" s="60"/>
     </row>
     <row r="14" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="236" t="s">
+      <c r="A14" s="250" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="231"/>
-      <c r="C14" s="237" t="s">
+      <c r="B14" s="238"/>
+      <c r="C14" s="251" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="238"/>
-      <c r="E14" s="238"/>
-      <c r="F14" s="231"/>
+      <c r="D14" s="237"/>
+      <c r="E14" s="237"/>
+      <c r="F14" s="238"/>
       <c r="G14" s="84" t="s">
         <v>185</v>
       </c>
@@ -7256,10 +7238,10 @@
         <v>190</v>
       </c>
       <c r="J14" s="87"/>
-      <c r="K14" s="237"/>
-      <c r="L14" s="238"/>
-      <c r="M14" s="238"/>
-      <c r="N14" s="231"/>
+      <c r="K14" s="251"/>
+      <c r="L14" s="237"/>
+      <c r="M14" s="237"/>
+      <c r="N14" s="238"/>
       <c r="O14" s="82" t="s">
         <v>191</v>
       </c>
@@ -7317,7 +7299,9 @@
       <c r="E16" s="60"/>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
+      <c r="H16" s="297" t="s">
+        <v>293</v>
+      </c>
       <c r="I16" s="60"/>
       <c r="J16" s="60"/>
       <c r="K16" s="60"/>
@@ -34639,6 +34623,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -34648,11 +34637,6 @@
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Volver al inicio" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
@@ -34670,7 +34654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED73EB7B-5244-4B67-A0F2-C74FFCF6A4A6}">
   <dimension ref="A1:Z226"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -34691,24 +34675,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="286" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="252"/>
-      <c r="K1" s="252"/>
-      <c r="L1" s="252"/>
-      <c r="M1" s="252"/>
-      <c r="N1" s="252"/>
-      <c r="O1" s="252"/>
-      <c r="P1" s="252"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="260"/>
+      <c r="P1" s="260"/>
       <c r="Q1" s="89"/>
       <c r="R1" s="89"/>
       <c r="S1" s="89"/>
@@ -34724,23 +34708,23 @@
       <c r="A2" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="253" t="s">
+      <c r="B2" s="287" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="254"/>
-      <c r="O2" s="254"/>
-      <c r="P2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="253"/>
       <c r="Q2" s="89"/>
       <c r="R2" s="89"/>
       <c r="S2" s="89"/>
@@ -34756,23 +34740,23 @@
       <c r="A3" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="256" t="s">
+      <c r="B3" s="288" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="254"/>
-      <c r="K3" s="254"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="254"/>
-      <c r="P3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="255"/>
+      <c r="L3" s="255"/>
+      <c r="M3" s="255"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="253"/>
       <c r="Q3" s="89"/>
       <c r="R3" s="89"/>
       <c r="S3" s="89"/>
@@ -35149,11 +35133,11 @@
       <c r="Z11" s="89"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="257" t="s">
+      <c r="A12" s="289" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="254"/>
-      <c r="C12" s="255"/>
+      <c r="B12" s="255"/>
+      <c r="C12" s="253"/>
       <c r="D12" s="89"/>
       <c r="E12" s="89"/>
       <c r="F12" s="89"/>
@@ -35213,13 +35197,13 @@
       <c r="Z13" s="89"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="258" t="s">
+      <c r="A14" s="290" t="s">
         <v>225</v>
       </c>
-      <c r="B14" s="261" t="s">
+      <c r="B14" s="291" t="s">
         <v>226</v>
       </c>
-      <c r="C14" s="269" t="str">
+      <c r="C14" s="295" t="str">
         <f>A10</f>
         <v>Servicio</v>
       </c>
@@ -35248,9 +35232,9 @@
       <c r="Z14" s="89"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="259"/>
-      <c r="B15" s="259"/>
-      <c r="C15" s="270"/>
+      <c r="A15" s="266"/>
+      <c r="B15" s="266"/>
+      <c r="C15" s="296"/>
       <c r="D15" s="89"/>
       <c r="E15" s="89"/>
       <c r="F15" s="89"/>
@@ -35276,9 +35260,9 @@
       <c r="Z15" s="89"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="259"/>
-      <c r="B16" s="259"/>
-      <c r="C16" s="269" t="s">
+      <c r="A16" s="266"/>
+      <c r="B16" s="266"/>
+      <c r="C16" s="295" t="s">
         <v>197</v>
       </c>
       <c r="D16" s="89"/>
@@ -35306,9 +35290,9 @@
       <c r="Z16" s="89"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="260"/>
-      <c r="B17" s="260"/>
-      <c r="C17" s="270"/>
+      <c r="A17" s="267"/>
+      <c r="B17" s="267"/>
+      <c r="C17" s="296"/>
       <c r="D17" s="89"/>
       <c r="E17" s="89"/>
       <c r="F17" s="89"/>
@@ -35362,36 +35346,36 @@
       <c r="Z18" s="89"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="262" t="s">
+      <c r="A19" s="292" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="263"/>
-      <c r="C19" s="279" t="s">
+      <c r="B19" s="279"/>
+      <c r="C19" s="277" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="280"/>
-      <c r="E19" s="280"/>
-      <c r="F19" s="263"/>
-      <c r="G19" s="248" t="s">
+      <c r="D19" s="278"/>
+      <c r="E19" s="278"/>
+      <c r="F19" s="279"/>
+      <c r="G19" s="281" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="282"/>
-      <c r="I19" s="249"/>
-      <c r="J19" s="248" t="s">
+      <c r="I19" s="283"/>
+      <c r="J19" s="281" t="s">
         <v>25</v>
       </c>
       <c r="K19" s="282"/>
       <c r="L19" s="282"/>
       <c r="M19" s="282"/>
-      <c r="N19" s="249"/>
-      <c r="O19" s="248" t="s">
+      <c r="N19" s="283"/>
+      <c r="O19" s="281" t="s">
         <v>26</v>
       </c>
-      <c r="P19" s="249"/>
-      <c r="Q19" s="248" t="s">
+      <c r="P19" s="283"/>
+      <c r="Q19" s="281" t="s">
         <v>27</v>
       </c>
-      <c r="R19" s="250"/>
+      <c r="R19" s="285"/>
       <c r="S19" s="89"/>
       <c r="T19" s="89"/>
       <c r="U19" s="89"/>
@@ -35402,12 +35386,12 @@
       <c r="Z19" s="89"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="264"/>
-      <c r="B20" s="265"/>
-      <c r="C20" s="278"/>
-      <c r="D20" s="281"/>
-      <c r="E20" s="281"/>
-      <c r="F20" s="265"/>
+      <c r="A20" s="293"/>
+      <c r="B20" s="261"/>
+      <c r="C20" s="259"/>
+      <c r="D20" s="280"/>
+      <c r="E20" s="280"/>
+      <c r="F20" s="261"/>
       <c r="G20" s="108" t="s">
         <v>28</v>
       </c>
@@ -35420,12 +35404,12 @@
       <c r="J20" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="266" t="s">
+      <c r="K20" s="294" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="267"/>
-      <c r="M20" s="267"/>
-      <c r="N20" s="268"/>
+      <c r="L20" s="257"/>
+      <c r="M20" s="257"/>
+      <c r="N20" s="258"/>
       <c r="O20" s="108" t="s">
         <v>30</v>
       </c>
@@ -35448,30 +35432,30 @@
       <c r="Z20" s="89"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="283" t="s">
+      <c r="A21" s="270" t="s">
         <v>200</v>
       </c>
-      <c r="B21" s="268"/>
-      <c r="C21" s="284" t="s">
+      <c r="B21" s="258"/>
+      <c r="C21" s="271" t="s">
         <v>227</v>
       </c>
-      <c r="D21" s="267"/>
-      <c r="E21" s="267"/>
-      <c r="F21" s="268"/>
-      <c r="G21" s="285" t="s">
+      <c r="D21" s="257"/>
+      <c r="E21" s="257"/>
+      <c r="F21" s="258"/>
+      <c r="G21" s="272" t="s">
         <v>167</v>
       </c>
-      <c r="H21" s="271" t="s">
+      <c r="H21" s="273" t="s">
         <v>167</v>
       </c>
-      <c r="I21" s="286" t="s">
+      <c r="I21" s="274" t="s">
         <v>230</v>
       </c>
-      <c r="J21" s="271"/>
-      <c r="K21" s="272"/>
-      <c r="L21" s="267"/>
-      <c r="M21" s="267"/>
-      <c r="N21" s="268"/>
+      <c r="J21" s="273"/>
+      <c r="K21" s="275"/>
+      <c r="L21" s="257"/>
+      <c r="M21" s="257"/>
+      <c r="N21" s="258"/>
       <c r="O21" s="105" t="s">
         <v>201</v>
       </c>
@@ -35494,20 +35478,20 @@
       <c r="Z21" s="89"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="273"/>
-      <c r="B22" s="275"/>
-      <c r="C22" s="273"/>
-      <c r="D22" s="274"/>
-      <c r="E22" s="274"/>
-      <c r="F22" s="275"/>
-      <c r="G22" s="260"/>
-      <c r="H22" s="260"/>
-      <c r="I22" s="260"/>
-      <c r="J22" s="260"/>
-      <c r="K22" s="273"/>
-      <c r="L22" s="274"/>
-      <c r="M22" s="274"/>
-      <c r="N22" s="275"/>
+      <c r="A22" s="262"/>
+      <c r="B22" s="264"/>
+      <c r="C22" s="262"/>
+      <c r="D22" s="263"/>
+      <c r="E22" s="263"/>
+      <c r="F22" s="264"/>
+      <c r="G22" s="267"/>
+      <c r="H22" s="267"/>
+      <c r="I22" s="267"/>
+      <c r="J22" s="267"/>
+      <c r="K22" s="262"/>
+      <c r="L22" s="263"/>
+      <c r="M22" s="263"/>
+      <c r="N22" s="264"/>
       <c r="O22" s="105" t="s">
         <v>203</v>
       </c>
@@ -35530,16 +35514,16 @@
       <c r="Z22" s="89"/>
     </row>
     <row r="23" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="287" t="s">
+      <c r="A23" s="252" t="s">
         <v>204</v>
       </c>
-      <c r="B23" s="255"/>
-      <c r="C23" s="276" t="s">
+      <c r="B23" s="253"/>
+      <c r="C23" s="254" t="s">
         <v>228</v>
       </c>
-      <c r="D23" s="254"/>
-      <c r="E23" s="254"/>
-      <c r="F23" s="255"/>
+      <c r="D23" s="255"/>
+      <c r="E23" s="255"/>
+      <c r="F23" s="253"/>
       <c r="G23" s="113" t="s">
         <v>167</v>
       </c>
@@ -35550,10 +35534,10 @@
         <v>205</v>
       </c>
       <c r="J23" s="110"/>
-      <c r="K23" s="276"/>
-      <c r="L23" s="254"/>
-      <c r="M23" s="254"/>
-      <c r="N23" s="255"/>
+      <c r="K23" s="254"/>
+      <c r="L23" s="255"/>
+      <c r="M23" s="255"/>
+      <c r="N23" s="253"/>
       <c r="O23" s="101" t="s">
         <v>233</v>
       </c>
@@ -35576,30 +35560,30 @@
       <c r="Z23" s="89"/>
     </row>
     <row r="24" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="292" t="s">
+      <c r="A24" s="269" t="s">
         <v>239</v>
       </c>
-      <c r="B24" s="268"/>
-      <c r="C24" s="288" t="s">
+      <c r="B24" s="258"/>
+      <c r="C24" s="256" t="s">
         <v>229</v>
       </c>
-      <c r="D24" s="267"/>
-      <c r="E24" s="267"/>
-      <c r="F24" s="268"/>
-      <c r="G24" s="289" t="s">
+      <c r="D24" s="257"/>
+      <c r="E24" s="257"/>
+      <c r="F24" s="258"/>
+      <c r="G24" s="265" t="s">
         <v>167</v>
       </c>
-      <c r="H24" s="290" t="s">
+      <c r="H24" s="268" t="s">
         <v>167</v>
       </c>
-      <c r="I24" s="291" t="s">
+      <c r="I24" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="J24" s="289"/>
-      <c r="K24" s="277"/>
-      <c r="L24" s="267"/>
-      <c r="M24" s="267"/>
-      <c r="N24" s="268"/>
+      <c r="J24" s="265"/>
+      <c r="K24" s="276"/>
+      <c r="L24" s="257"/>
+      <c r="M24" s="257"/>
+      <c r="N24" s="258"/>
       <c r="O24" s="106" t="s">
         <v>235</v>
       </c>
@@ -35622,20 +35606,20 @@
       <c r="Z24" s="89"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="278"/>
-      <c r="B25" s="265"/>
-      <c r="C25" s="278"/>
-      <c r="D25" s="252"/>
-      <c r="E25" s="252"/>
-      <c r="F25" s="265"/>
-      <c r="G25" s="259"/>
-      <c r="H25" s="259"/>
-      <c r="I25" s="259"/>
-      <c r="J25" s="259"/>
-      <c r="K25" s="278"/>
-      <c r="L25" s="252"/>
-      <c r="M25" s="252"/>
-      <c r="N25" s="265"/>
+      <c r="A25" s="259"/>
+      <c r="B25" s="261"/>
+      <c r="C25" s="259"/>
+      <c r="D25" s="260"/>
+      <c r="E25" s="260"/>
+      <c r="F25" s="261"/>
+      <c r="G25" s="266"/>
+      <c r="H25" s="266"/>
+      <c r="I25" s="266"/>
+      <c r="J25" s="266"/>
+      <c r="K25" s="259"/>
+      <c r="L25" s="260"/>
+      <c r="M25" s="260"/>
+      <c r="N25" s="261"/>
       <c r="O25" s="106" t="s">
         <v>208</v>
       </c>
@@ -35658,20 +35642,20 @@
       <c r="Z25" s="89"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="273"/>
-      <c r="B26" s="275"/>
-      <c r="C26" s="273"/>
-      <c r="D26" s="274"/>
-      <c r="E26" s="274"/>
-      <c r="F26" s="275"/>
-      <c r="G26" s="260"/>
-      <c r="H26" s="260"/>
-      <c r="I26" s="260"/>
-      <c r="J26" s="260"/>
-      <c r="K26" s="273"/>
-      <c r="L26" s="274"/>
-      <c r="M26" s="274"/>
-      <c r="N26" s="275"/>
+      <c r="A26" s="262"/>
+      <c r="B26" s="264"/>
+      <c r="C26" s="262"/>
+      <c r="D26" s="263"/>
+      <c r="E26" s="263"/>
+      <c r="F26" s="264"/>
+      <c r="G26" s="267"/>
+      <c r="H26" s="267"/>
+      <c r="I26" s="267"/>
+      <c r="J26" s="267"/>
+      <c r="K26" s="262"/>
+      <c r="L26" s="263"/>
+      <c r="M26" s="263"/>
+      <c r="N26" s="264"/>
       <c r="O26" s="106" t="s">
         <v>237</v>
       </c>
@@ -41295,26 +41279,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="A24:B26"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N26"/>
-    <mergeCell ref="C19:F20"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="A1:P1"/>
@@ -41327,6 +41291,26 @@
     <mergeCell ref="K20:N20"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C14:C15"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N26"/>
+    <mergeCell ref="C19:F20"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="A24:B26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="null!A1" display="Volver al inicio" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
@@ -41346,6 +41330,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -41489,15 +41482,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -41505,6 +41489,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41518,14 +41510,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
